--- a/Day06/W03-V01-Font-Formatting.xlsx
+++ b/Day06/W03-V01-Font-Formatting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mq20084022\Google Drive\Excel MOOC\001 Course 1 - Beginner\04 Excel Workbooks\Week 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e80182422bf530f5/Documents/DeetsDigital/Data/Training/Excel/Day06/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_FB9B510EA2F028083097DE764A5A949E7016C95E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFA9BD40-728C-4839-A865-F198FC94176A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10524" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,20 @@
     <sheet name="Sales 15&amp;16" sheetId="9" r:id="rId4"/>
     <sheet name="Account Managers" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5817,13 +5828,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$-C09]dd/mmm/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5868,8 +5879,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB Demi"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5890,6 +5915,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5933,7 +5964,7 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -5941,22 +5972,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5969,7 +6000,7 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="6"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="7" applyBorder="1"/>
@@ -5980,6 +6011,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent3" xfId="6" builtinId="38"/>
@@ -6300,7 +6333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1042"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -88502,7 +88535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -89114,11 +89147,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -89129,40 +89162,40 @@
     <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="27" t="s">
         <v>865</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="27" t="s">
         <v>1919</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="27" t="s">
         <v>1920</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="27" t="s">
         <v>1921</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="27" t="s">
         <v>1922</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="27" t="s">
         <v>1923</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="27" t="s">
         <v>1924</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="27" t="s">
         <v>1925</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="27" t="s">
         <v>1926</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="27" t="s">
         <v>1927</v>
       </c>
     </row>
@@ -89199,7 +89232,7 @@
         <v>742.53</v>
       </c>
       <c r="J4">
-        <f>F4*$B$20</f>
+        <f t="shared" ref="J4:J18" si="0">F4*$B$20</f>
         <v>2121.2429999999999</v>
       </c>
     </row>
@@ -89224,19 +89257,19 @@
         <v>24873.850000000002</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G18" si="0">AVERAGE(B5:E5)</f>
+        <f t="shared" ref="G5:G18" si="1">AVERAGE(B5:E5)</f>
         <v>6218.4625000000005</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H18" si="1">MAX(B5:E5)</f>
+        <f t="shared" ref="H5:H18" si="2">MAX(B5:E5)</f>
         <v>24271.31</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I18" si="2">MIN(B5:E5)</f>
+        <f t="shared" ref="I5:I18" si="3">MIN(B5:E5)</f>
         <v>116.61</v>
       </c>
       <c r="J5">
-        <f>F5*$B$20</f>
+        <f t="shared" si="0"/>
         <v>1243.6925000000001</v>
       </c>
     </row>
@@ -89261,19 +89294,19 @@
         <v>28401.890000000003</v>
       </c>
       <c r="G6">
+        <f t="shared" si="1"/>
+        <v>7100.4725000000008</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>20123.650000000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>854.07999999999993</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
-        <v>7100.4725000000008</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>20123.650000000001</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
-        <v>854.07999999999993</v>
-      </c>
-      <c r="J6">
-        <f>F6*$B$20</f>
         <v>1420.0945000000002</v>
       </c>
     </row>
@@ -89294,23 +89327,23 @@
         <v>16169.119999999999</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F17" si="3">SUM(B7:E7)</f>
+        <f t="shared" ref="F7:F17" si="4">SUM(B7:E7)</f>
         <v>18441.41</v>
       </c>
       <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4610.3525</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>16169.119999999999</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>327.02</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
-        <v>4610.3525</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>16169.119999999999</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
-        <v>327.02</v>
-      </c>
-      <c r="J7">
-        <f>F7*$B$20</f>
         <v>922.07050000000004</v>
       </c>
     </row>
@@ -89331,23 +89364,23 @@
         <v>470.73999999999995</v>
       </c>
       <c r="F8">
+        <f t="shared" si="4"/>
+        <v>2474.4899999999998</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>618.62249999999995</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>981.27</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="3"/>
-        <v>2474.4899999999998</v>
-      </c>
-      <c r="G8">
+        <v>425.78</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>618.62249999999995</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>981.27</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
-        <v>425.78</v>
-      </c>
-      <c r="J8">
-        <f>F8*$B$20</f>
         <v>123.72449999999999</v>
       </c>
     </row>
@@ -89368,23 +89401,23 @@
         <v>4956.4299999999994</v>
       </c>
       <c r="F9">
+        <f t="shared" si="4"/>
+        <v>20562.34</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>5140.585</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>6259.31</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="3"/>
-        <v>20562.34</v>
-      </c>
-      <c r="G9">
+        <v>4265.8599999999997</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
-        <v>5140.585</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>6259.31</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
-        <v>4265.8599999999997</v>
-      </c>
-      <c r="J9">
-        <f>F9*$B$20</f>
         <v>1028.117</v>
       </c>
     </row>
@@ -89405,23 +89438,23 @@
         <v>2384.0399999999995</v>
       </c>
       <c r="F10">
+        <f t="shared" si="4"/>
+        <v>27896.940000000002</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>6974.2350000000006</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>21787.86</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="3"/>
-        <v>27896.940000000002</v>
-      </c>
-      <c r="G10">
+        <v>1533.62</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
-        <v>6974.2350000000006</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>21787.86</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
-        <v>1533.62</v>
-      </c>
-      <c r="J10">
-        <f>F10*$B$20</f>
         <v>1394.8470000000002</v>
       </c>
     </row>
@@ -89442,23 +89475,23 @@
         <v>15653.929999999998</v>
       </c>
       <c r="F11">
+        <f t="shared" si="4"/>
+        <v>33279.429999999993</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8319.8574999999983</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>15653.929999999998</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="3"/>
-        <v>33279.429999999993</v>
-      </c>
-      <c r="G11">
+        <v>351.06</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
-        <v>8319.8574999999983</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>15653.929999999998</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>351.06</v>
-      </c>
-      <c r="J11">
-        <f>F11*$B$20</f>
         <v>1663.9714999999997</v>
       </c>
     </row>
@@ -89479,23 +89512,23 @@
         <v>2817.6</v>
       </c>
       <c r="F12">
+        <f t="shared" si="4"/>
+        <v>7873.76</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1968.44</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>2817.6</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="3"/>
-        <v>7873.76</v>
-      </c>
-      <c r="G12">
+        <v>1326.0699999999997</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
-        <v>1968.44</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>2817.6</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
-        <v>1326.0699999999997</v>
-      </c>
-      <c r="J12">
-        <f>F12*$B$20</f>
         <v>393.68800000000005</v>
       </c>
     </row>
@@ -89516,23 +89549,23 @@
         <v>206.16</v>
       </c>
       <c r="F13">
+        <f t="shared" si="4"/>
+        <v>10583.07</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>2645.7674999999999</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>10373.59</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="3"/>
-        <v>10583.07</v>
-      </c>
-      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="0"/>
-        <v>2645.7674999999999</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>10373.59</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>F13*$B$20</f>
         <v>529.15350000000001</v>
       </c>
     </row>
@@ -89553,23 +89586,23 @@
         <v>4921.92</v>
       </c>
       <c r="F14">
+        <f t="shared" si="4"/>
+        <v>10703.92</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2675.98</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>4921.92</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="3"/>
-        <v>10703.92</v>
-      </c>
-      <c r="G14">
+        <v>1542.68</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
-        <v>2675.98</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>4921.92</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>1542.68</v>
-      </c>
-      <c r="J14">
-        <f>F14*$B$20</f>
         <v>535.19600000000003</v>
       </c>
     </row>
@@ -89590,23 +89623,23 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <f t="shared" si="4"/>
+        <v>91.1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>22.774999999999999</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>91.1</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="3"/>
-        <v>91.1</v>
-      </c>
-      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
-        <v>22.774999999999999</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>91.1</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f>F15*$B$20</f>
         <v>4.5549999999999997</v>
       </c>
     </row>
@@ -89627,23 +89660,23 @@
         <v>2952.7300000000005</v>
       </c>
       <c r="F16">
+        <f t="shared" si="4"/>
+        <v>29716.149999999998</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>7429.0374999999995</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>17247.36</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="3"/>
-        <v>29716.149999999998</v>
-      </c>
-      <c r="G16">
+        <v>2512.2399999999998</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
-        <v>7429.0374999999995</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>17247.36</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>2512.2399999999998</v>
-      </c>
-      <c r="J16">
-        <f>F16*$B$20</f>
         <v>1485.8074999999999</v>
       </c>
     </row>
@@ -89664,23 +89697,23 @@
         <v>7731.7799999999988</v>
       </c>
       <c r="F17">
+        <f t="shared" si="4"/>
+        <v>14754.249999999998</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>3688.5624999999995</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>7731.7799999999988</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="3"/>
-        <v>14754.249999999998</v>
-      </c>
-      <c r="G17">
+        <v>1476.9199999999998</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="0"/>
-        <v>3688.5624999999995</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>7731.7799999999988</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>1476.9199999999998</v>
-      </c>
-      <c r="J17">
-        <f>F17*$B$20</f>
         <v>737.71249999999998</v>
       </c>
     </row>
@@ -89693,35 +89726,35 @@
         <v>86600.3</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:F18" si="4">SUM(C4:C17)</f>
+        <f t="shared" ref="C18:F18" si="5">SUM(C4:C17)</f>
         <v>57447.35</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64293.7</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63736.11</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>272077.46000000002</v>
       </c>
       <c r="G18">
+        <f t="shared" si="1"/>
+        <v>68019.364999999991</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>86600.3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>57447.35</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="0"/>
-        <v>68019.364999999991</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>86600.3</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>57447.35</v>
-      </c>
-      <c r="J18">
-        <f>F18*$B$20</f>
         <v>13603.873000000001</v>
       </c>
     </row>
@@ -89743,11 +89776,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -90107,7 +90141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
